--- a/biology/Médecine/Drug_Discovery_Today/Drug_Discovery_Today.xlsx
+++ b/biology/Médecine/Drug_Discovery_Today/Drug_Discovery_Today.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Drug Discovery Today (abrégé en Drug Discov. Today) est une revue scientifique à comité de lecture spécialisée dans le domaine de la découverte des médicaments[1].
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 6,691 en 2014. Actuellement, la direction de publication est assurée par Steve Carney[2].
+Drug Discovery Today (abrégé en Drug Discov. Today) est une revue scientifique à comité de lecture spécialisée dans le domaine de la découverte des médicaments.
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 6,691 en 2014. Actuellement, la direction de publication est assurée par Steve Carney.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au cours de son histoire, le journal a incorporé différents titres :
-Pharmaceutical Science &amp; Technology Today, 1998-2000  (ISSN 1461-5347)[3]
-TARGETS, renommé Drug Discovery Today: TARGETS, 2002-2004  (ISSN 1477-3627)[4],[5]
-BIOSILICO, renommé Drug Discovery Today: BIOSILICO, 2003-2004  (ISSN 1741-8364)[6],[7]</t>
+Pharmaceutical Science &amp; Technology Today, 1998-2000  (ISSN 1461-5347)
+TARGETS, renommé Drug Discovery Today: TARGETS, 2002-2004  (ISSN 1477-3627),
+BIOSILICO, renommé Drug Discovery Today: BIOSILICO, 2003-2004  (ISSN 1741-8364),</t>
         </is>
       </c>
     </row>
